--- a/Runs.xlsx
+++ b/Runs.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\תואר שני\למידה חישובית\תרגילי בית\Goactive\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A5D1CC-FA9F-48E8-BC5D-B5F3CB913E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="9036" yWindow="1092" windowWidth="14004" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,58 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Base tree</t>
+  </si>
+  <si>
+    <t>can and should be learned more</t>
+  </si>
+  <si>
+    <t>Submitted</t>
+  </si>
+  <si>
+    <t>base tree with max depth of 10</t>
+  </si>
+  <si>
+    <t>chagne to random forests</t>
+  </si>
+  <si>
+    <t>examine gradient boost</t>
+  </si>
+  <si>
+    <t>combine 1.2 and 1.3 to majority vote</t>
+  </si>
+  <si>
+    <t>Check overfitting by limiting tree size in random foret</t>
+  </si>
+  <si>
+    <t>ANN</t>
+  </si>
+  <si>
+    <t>Need to check examples</t>
+  </si>
+  <si>
+    <t>Choose best examples and make their weight greater</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +386,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="44.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>0.41599999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>0.4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1.2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1.3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>0.46600000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1.4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1.5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1.6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>0.46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1.7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>0.44</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Runs.xlsx
+++ b/Runs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\תואר שני\למידה חישובית\תרגילי בית\Goactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A5D1CC-FA9F-48E8-BC5D-B5F3CB913E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC01B8E4-E68D-401B-B060-41C9DBF64560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9036" yWindow="1092" windowWidth="14004" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -70,6 +71,21 @@
   </si>
   <si>
     <t>Choose best examples and make their weight greater</t>
+  </si>
+  <si>
+    <t>normallization with ANN</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>adaboost +gboost+ rf</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>lgbmboost +gboost+ rf</t>
   </si>
 </sst>
 </file>
@@ -105,8 +121,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -415,7 +432,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -429,7 +446,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" t="s">
@@ -446,7 +463,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>1.2</v>
       </c>
       <c r="B4" t="s">
@@ -460,7 +477,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>1.3</v>
       </c>
       <c r="B5" t="s">
@@ -474,7 +491,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>1.4</v>
       </c>
       <c r="B6" t="s">
@@ -488,7 +505,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>1.5</v>
       </c>
       <c r="B7" t="s">
@@ -502,7 +519,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>1.6</v>
       </c>
       <c r="B8" t="s">
@@ -519,7 +536,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>1.7</v>
       </c>
       <c r="B9" t="s">
@@ -529,10 +546,74 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <v>0.44</v>
-      </c>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Runs.xlsx
+++ b/Runs.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\תואר שני\למידה חישובית\תרגילי בית\Goactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC01B8E4-E68D-401B-B060-41C9DBF64560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064A5209-F2B5-4B37-BD3B-0A757B72E91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9036" yWindow="1092" windowWidth="14004" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1092" windowWidth="14004" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -86,6 +85,27 @@
   </si>
   <si>
     <t>lgbmboost +gboost+ rf</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>Trying to use svd/pca for sparsing a differnt dim</t>
+  </si>
+  <si>
+    <t>results seems to get lower in the validation set</t>
+  </si>
+  <si>
+    <t>Increase number of folds to 10 to increase training data</t>
+  </si>
+  <si>
+    <t>how do I get even poorer results am I overfitted</t>
+  </si>
+  <si>
+    <t>stratified kfold+1.10</t>
+  </si>
+  <si>
+    <t>cross valdate gradient boost parameters by checking overfit</t>
   </si>
 </sst>
 </file>
@@ -407,7 +427,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,16 +612,45 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>

--- a/Runs.xlsx
+++ b/Runs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\תואר שני\למידה חישובית\תרגילי בית\Goactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064A5209-F2B5-4B37-BD3B-0A757B72E91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30603415-0E54-48EB-B2C6-449666603A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1092" windowWidth="14004" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -90,6 +90,9 @@
     <t>2.0</t>
   </si>
   <si>
+    <t>2.1</t>
+  </si>
+  <si>
     <t>Trying to use svd/pca for sparsing a differnt dim</t>
   </si>
   <si>
@@ -106,6 +109,12 @@
   </si>
   <si>
     <t>cross valdate gradient boost parameters by checking overfit</t>
+  </si>
+  <si>
+    <t>learn hyper params of trees and gboost</t>
+  </si>
+  <si>
+    <t>try to change weights of the algorithms</t>
   </si>
 </sst>
 </file>
@@ -427,7 +436,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,7 +625,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
@@ -628,37 +637,51 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
     </row>
   </sheetData>

--- a/Runs.xlsx
+++ b/Runs.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\תואר שני\למידה חישובית\תרגילי בית\Goactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30603415-0E54-48EB-B2C6-449666603A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8548DF7-074D-493E-90E2-2B1684EAD4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1092" windowWidth="14004" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -115,6 +116,15 @@
   </si>
   <si>
     <t>try to change weights of the algorithms</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>Add log features</t>
+  </si>
+  <si>
+    <t>Change stratified kfold to repeated k fold and increase train set</t>
   </si>
 </sst>
 </file>
@@ -433,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -682,7 +692,32 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>0.505</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>0.50900000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Runs.xlsx
+++ b/Runs.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\תואר שני\למידה חישובית\תרגילי בית\Goactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8548DF7-074D-493E-90E2-2B1684EAD4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC3747A-3DC7-42D6-87D4-5428D2F3F4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -125,6 +124,15 @@
   </si>
   <si>
     <t>Change stratified kfold to repeated k fold and increase train set</t>
+  </si>
+  <si>
+    <t>Retry NN with keras and tensor flow</t>
+  </si>
+  <si>
+    <t>add randomness generator fir best model</t>
+  </si>
+  <si>
+    <t>Integrate best model with current one</t>
   </si>
 </sst>
 </file>
@@ -443,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -719,6 +727,27 @@
         <v>0.50900000000000001</v>
       </c>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2.4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24">
+        <v>5.1025999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Runs.xlsx
+++ b/Runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\תואר שני\למידה חישובית\תרגילי בית\Goactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC3747A-3DC7-42D6-87D4-5428D2F3F4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105E20F1-1146-480A-A5BE-132CAF44784B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="0" windowWidth="9588" windowHeight="4800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -132,7 +132,13 @@
     <t>add randomness generator fir best model</t>
   </si>
   <si>
-    <t>Integrate best model with current one</t>
+    <t>combine predictions on base using classes distributions</t>
+  </si>
+  <si>
+    <t>Integrate best model with current one and adjast weights</t>
+  </si>
+  <si>
+    <t>Change weights</t>
   </si>
 </sst>
 </file>
@@ -451,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -742,10 +748,32 @@
         <v>2.4</v>
       </c>
       <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24">
+        <v>0.51026000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2.5</v>
+      </c>
+      <c r="B25" t="s">
         <v>35</v>
       </c>
-      <c r="D24">
-        <v>5.1025999999999998</v>
+      <c r="D25">
+        <v>0.51119999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2.5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26">
+        <v>0.51200000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Runs.xlsx
+++ b/Runs.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\תואר שני\למידה חישובית\תרגילי בית\Goactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105E20F1-1146-480A-A5BE-132CAF44784B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E752A22-09F8-44B2-8AC0-1E896EE04BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="0" windowWidth="9588" windowHeight="4800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Desc</t>
   </si>
@@ -36,18 +34,9 @@
     <t>score</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>Base tree</t>
   </si>
   <si>
-    <t>can and should be learned more</t>
-  </si>
-  <si>
-    <t>Submitted</t>
-  </si>
-  <si>
     <t>base tree with max depth of 10</t>
   </si>
   <si>
@@ -66,18 +55,12 @@
     <t>ANN</t>
   </si>
   <si>
-    <t>Need to check examples</t>
-  </si>
-  <si>
     <t>Choose best examples and make their weight greater</t>
   </si>
   <si>
     <t>normallization with ANN</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>adaboost +gboost+ rf</t>
   </si>
   <si>
@@ -96,21 +79,12 @@
     <t>Trying to use svd/pca for sparsing a differnt dim</t>
   </si>
   <si>
-    <t>results seems to get lower in the validation set</t>
-  </si>
-  <si>
     <t>Increase number of folds to 10 to increase training data</t>
   </si>
   <si>
-    <t>how do I get even poorer results am I overfitted</t>
-  </si>
-  <si>
     <t>stratified kfold+1.10</t>
   </si>
   <si>
-    <t>cross valdate gradient boost parameters by checking overfit</t>
-  </si>
-  <si>
     <t>learn hyper params of trees and gboost</t>
   </si>
   <si>
@@ -139,6 +113,66 @@
   </si>
   <si>
     <t>Change weights</t>
+  </si>
+  <si>
+    <t>preform minmax scalar for nn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change normallizatoin to minmax </t>
+  </si>
+  <si>
+    <t>Add mutated data to X train</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try svm model </t>
+  </si>
+  <si>
+    <t>GIT ID</t>
+  </si>
+  <si>
+    <t>cross validate gradient boost parameters by checking overfit</t>
+  </si>
+  <si>
+    <t>Try to relearn the train set using confident predictions from previus iterations</t>
+  </si>
+  <si>
+    <t>Insights</t>
+  </si>
+  <si>
+    <t>A simple tree is not suited and tend to overfit</t>
+  </si>
+  <si>
+    <t>need to use more robust model</t>
+  </si>
+  <si>
+    <t>A combination of algotihm can increase predictions as the predictions of the models do nor ovelap</t>
+  </si>
+  <si>
+    <t>How do i choose the best samples</t>
+  </si>
+  <si>
+    <t>overfit is most often related to the model complexity</t>
+  </si>
+  <si>
+    <t>Combination al oalgorithms using predict_proba is most suitable</t>
+  </si>
+  <si>
+    <t>Our train data is too fat differnet from the test</t>
+  </si>
+  <si>
+    <t>We should pre process our features better</t>
+  </si>
+  <si>
+    <t>Randomness compansate for the distance from the test set</t>
+  </si>
+  <si>
+    <t>Integrating best model helps in the running time and the results tend to get better</t>
+  </si>
+  <si>
+    <t>We cant conculde surely that our algorithm is benfitial this eay</t>
+  </si>
+  <si>
+    <t>Mutation made our test set and train set closer</t>
   </si>
 </sst>
 </file>
@@ -457,265 +491,231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="44.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
       <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="C2">
         <v>0.41599999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3">
+      <c r="C3">
         <v>0.4</v>
       </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1.2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>0.46</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1.3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="C5">
         <v>0.46600000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1.4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="C6">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1.5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="C7">
         <v>0.41</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1.6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="C8">
         <v>0.46</v>
       </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1.7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="C9">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1.8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="C10">
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1.9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="C11">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13">
+      <c r="C13">
         <v>0.49</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17">
+        <v>19</v>
+      </c>
+      <c r="C17">
         <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19">
+        <v>22</v>
+      </c>
+      <c r="C19">
         <v>0.505</v>
       </c>
     </row>
@@ -724,23 +724,28 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20">
+        <v>23</v>
+      </c>
+      <c r="C20">
         <v>0.50900000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>34</v>
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -748,21 +753,18 @@
         <v>2.4</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24">
+        <v>27</v>
+      </c>
+      <c r="C24">
         <v>0.51026000000000005</v>
       </c>
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>2.5</v>
-      </c>
       <c r="B25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25">
-        <v>0.51119999999999999</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -770,10 +772,42 @@
         <v>2.5</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26">
+        <v>28</v>
+      </c>
+      <c r="C26">
         <v>0.51200000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2.6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30">
+        <v>0.51212999999999997</v>
+      </c>
+      <c r="D30" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
